--- a/biology/Botanique/Hoplestigmataceae/Hoplestigmataceae.xlsx
+++ b/biology/Botanique/Hoplestigmataceae/Hoplestigmataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Hoplestigmatacées regroupe des plantes dicotylédones ; elle comprend 2 espèces du genre unique : Hoplestigma.
 Ce sont des arbres originaires du centre-ouest de l'Afrique, à feuilles décidues et à inflorescences terminales. Celles-ci sont des cymes scorpioïdes, semblables à celle des Boraginacées, ce qui suggère un rapprochement possible de ces deux familles.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Hoplestigma (en), qui dérive du grec ὁπλή / oplè, « corne ; sabot du cheval », et στιγμα / stigma, stigmate, littéralement « stigmate fendu (comme le sabot d'un cheval) », en référence à la forme du stigmate (terminaison du pistil de la fleur).
 </t>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique n'a pas encore déterminé l'emplacement exact de cette famille, qu'elle situe parmi les eudicotylédones. 
-En classification phylogénétique APG III (2009)[1] cette famille est invalide ; ce genre est incorporé dans la famille Boraginaceae.
+En classification phylogénétique APG III (2009) cette famille est invalide ; ce genre est incorporé dans la famille Boraginaceae.
 </t>
         </is>
       </c>
